--- a/8thSemester/Technical Writing and Presentation/Task-3/Task-3_CGPA-Calculator UnHide.xlsx
+++ b/8thSemester/Technical Writing and Presentation/Task-3/Task-3_CGPA-Calculator UnHide.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\neub\8thSemester\Technical Writing and Presentation\Task-3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\mamutalib\neub\8thSemester\Technical Writing and Presentation\Task-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F488889-4CB5-4489-A070-E2229EE8E509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1860DC-394D-474A-B4AB-8E60046B5DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -841,7 +841,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -849,10 +849,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -860,9 +857,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -888,7 +882,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -897,18 +891,24 @@
     <xf numFmtId="2" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -922,7 +922,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -930,12 +930,6 @@
     </xf>
     <xf numFmtId="2" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1335,10 +1329,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:V210"/>
+  <dimension ref="B1:V120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1346,7 +1340,7 @@
     <col min="1" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="6.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="64.5703125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="64.5703125" style="6" customWidth="1"/>
     <col min="7" max="7" width="18.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" style="1" customWidth="1"/>
     <col min="9" max="9" width="19.5703125" style="1" customWidth="1"/>
@@ -1359,10 +1353,10 @@
     <col min="16" max="16" width="37" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.140625" style="1" customWidth="1"/>
     <col min="18" max="18" width="9.140625" style="1"/>
-    <col min="19" max="19" width="9.140625" style="14" customWidth="1"/>
-    <col min="20" max="20" width="11" style="14" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.7109375" style="14" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" style="12" customWidth="1"/>
+    <col min="20" max="20" width="11" style="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.7109375" style="12" customWidth="1"/>
     <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -1379,21 +1373,21 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="2:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
     </row>
     <row r="6" spans="2:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
       <c r="E6" s="23" t="s">
         <v>0</v>
       </c>
@@ -1403,20 +1397,18 @@
       <c r="I6" s="24"/>
       <c r="J6" s="24"/>
       <c r="K6" s="25"/>
-      <c r="L6" s="17" t="s">
+      <c r="L6" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="M6" s="18">
+      <c r="M6" s="16">
         <f>Q8</f>
         <v>215.5</v>
       </c>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
     </row>
     <row r="7" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
       <c r="E7" s="26"/>
       <c r="F7" s="27"/>
       <c r="G7" s="27"/>
@@ -1431,70 +1423,61 @@
         <f>Q9/Q8</f>
         <v>3.5005800464037122</v>
       </c>
-      <c r="N7" s="16"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
+      <c r="N7" s="14"/>
     </row>
     <row r="8" spans="2:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="H8" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="30" t="s">
+      <c r="H8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="K8" s="30" t="s">
+      <c r="K8" s="21" t="s">
         <v>5</v>
       </c>
       <c r="L8" s="29"/>
       <c r="M8" s="29"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="15" t="s">
+      <c r="N8" s="14"/>
+      <c r="P8" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="Q8" s="13">
+      <c r="Q8" s="11">
         <f>SUM(K:K)</f>
         <v>215.5</v>
       </c>
-      <c r="T8" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="U8" s="12" t="s">
+      <c r="T8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="U8" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="2:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="6">
-        <v>3</v>
-      </c>
-      <c r="H9" s="22" t="s">
+      <c r="G9" s="5">
+        <v>3</v>
+      </c>
+      <c r="H9" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="11">
         <f>IFERROR(VLOOKUP(H9,$T$8:$U$19,2,FALSE),0)</f>
         <v>3.25</v>
       </c>
@@ -1506,41 +1489,35 @@
         <f>IF(I9&gt;0,G9,0)</f>
         <v>3</v>
       </c>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
       <c r="P9" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="Q9" s="13">
+      <c r="Q9" s="11">
         <f>SUM(J:J)</f>
         <v>754.375</v>
       </c>
       <c r="T9" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="U9" s="31">
+      <c r="U9" s="22">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="2:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="6">
-        <v>3</v>
-      </c>
-      <c r="H10" s="22" t="s">
+      <c r="G10" s="5">
+        <v>3</v>
+      </c>
+      <c r="H10" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="I10" s="13">
-        <f t="shared" ref="I9:I40" si="0">IFERROR(VLOOKUP(H10,$T$8:$U$19,2,FALSE),0)</f>
+      <c r="I10" s="11">
+        <f t="shared" ref="I10:I40" si="0">IFERROR(VLOOKUP(H10,$T$8:$U$19,2,FALSE),0)</f>
         <v>3.75</v>
       </c>
       <c r="J10" s="2">
@@ -1551,32 +1528,27 @@
         <f t="shared" ref="K10:K73" si="2">IF(I10&gt;0,G10,0)</f>
         <v>3</v>
       </c>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
       <c r="T10" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="U10" s="31">
+      <c r="U10" s="22">
         <v>3.75</v>
       </c>
     </row>
     <row r="11" spans="2:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="H11" s="22" t="s">
+      <c r="G11" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="H11" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="11">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
@@ -1588,32 +1560,27 @@
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
       <c r="T11" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="U11" s="31">
+      <c r="U11" s="22">
         <v>3.5</v>
       </c>
     </row>
     <row r="12" spans="2:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="6">
-        <v>3</v>
-      </c>
-      <c r="H12" s="22" t="s">
+      <c r="G12" s="5">
+        <v>3</v>
+      </c>
+      <c r="H12" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="11">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
@@ -1625,32 +1592,27 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
       <c r="T12" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="U12" s="31">
+      <c r="U12" s="22">
         <v>3.25</v>
       </c>
     </row>
     <row r="13" spans="2:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="6">
-        <v>3</v>
-      </c>
-      <c r="H13" s="22" t="s">
+      <c r="G13" s="5">
+        <v>3</v>
+      </c>
+      <c r="H13" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="11">
         <f t="shared" si="0"/>
         <v>3.25</v>
       </c>
@@ -1662,34 +1624,27 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
       <c r="T13" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="U13" s="31">
+      <c r="U13" s="22">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="2:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="6">
-        <v>3</v>
-      </c>
-      <c r="H14" s="22" t="s">
+      <c r="G14" s="5">
+        <v>3</v>
+      </c>
+      <c r="H14" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="11">
         <f t="shared" si="0"/>
         <v>2.75</v>
       </c>
@@ -1701,34 +1656,27 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
       <c r="T14" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="U14" s="31">
+      <c r="U14" s="22">
         <v>2.75</v>
       </c>
     </row>
     <row r="15" spans="2:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="G15" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="H15" s="22" t="s">
+      <c r="G15" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="H15" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="11">
         <f t="shared" si="0"/>
         <v>3.25</v>
       </c>
@@ -1740,34 +1688,27 @@
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
       <c r="T15" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="U15" s="31">
+      <c r="U15" s="22">
         <v>2.5</v>
       </c>
     </row>
     <row r="16" spans="2:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="6">
-        <v>3</v>
-      </c>
-      <c r="H16" s="22" t="s">
+      <c r="G16" s="5">
+        <v>3</v>
+      </c>
+      <c r="H16" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I16" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -1779,34 +1720,27 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
       <c r="T16" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="U16" s="31">
+      <c r="U16" s="22">
         <v>2.25</v>
       </c>
     </row>
-    <row r="17" spans="2:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="6" t="s">
+    <row r="17" spans="5:21" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="6">
-        <v>3</v>
-      </c>
-      <c r="H17" s="22" t="s">
+      <c r="G17" s="5">
+        <v>3</v>
+      </c>
+      <c r="H17" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="11">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
@@ -1821,27 +1755,24 @@
       <c r="T17" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="U17" s="31">
+      <c r="U17" s="22">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="6" t="s">
+    <row r="18" spans="5:21" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="6">
-        <v>3</v>
-      </c>
-      <c r="H18" s="22" t="s">
+      <c r="G18" s="5">
+        <v>3</v>
+      </c>
+      <c r="H18" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18" s="11">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -1856,27 +1787,24 @@
       <c r="T18" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="U18" s="31">
+      <c r="U18" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="6" t="s">
+    <row r="19" spans="5:21" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="6">
-        <v>3</v>
-      </c>
-      <c r="H19" s="22" t="s">
+      <c r="G19" s="5">
+        <v>3</v>
+      </c>
+      <c r="H19" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="I19" s="13">
+      <c r="I19" s="11">
         <f t="shared" si="0"/>
         <v>2.25</v>
       </c>
@@ -1891,27 +1819,24 @@
       <c r="T19" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="U19" s="31">
+      <c r="U19" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="6" t="s">
+    <row r="20" spans="5:21" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G20" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="H20" s="22" t="s">
+      <c r="G20" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="H20" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I20" s="11">
         <f t="shared" si="0"/>
         <v>3.25</v>
       </c>
@@ -1924,23 +1849,20 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="21" spans="2:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="6" t="s">
+    <row r="21" spans="5:21" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G21" s="6">
-        <v>3</v>
-      </c>
-      <c r="H21" s="22" t="s">
+      <c r="G21" s="5">
+        <v>3</v>
+      </c>
+      <c r="H21" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="I21" s="13">
+      <c r="I21" s="11">
         <f t="shared" si="0"/>
         <v>2.75</v>
       </c>
@@ -1953,23 +1875,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="2:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="6" t="s">
+    <row r="22" spans="5:21" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E22" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G22" s="6">
-        <v>3</v>
-      </c>
-      <c r="H22" s="22" t="s">
+      <c r="G22" s="5">
+        <v>3</v>
+      </c>
+      <c r="H22" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I22" s="11">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
@@ -1982,23 +1901,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="2:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="6" t="s">
+    <row r="23" spans="5:21" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E23" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="6">
-        <v>3</v>
-      </c>
-      <c r="H23" s="22" t="s">
+      <c r="G23" s="5">
+        <v>3</v>
+      </c>
+      <c r="H23" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="I23" s="13">
+      <c r="I23" s="11">
         <f t="shared" si="0"/>
         <v>2.75</v>
       </c>
@@ -2011,23 +1927,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="6" t="s">
+    <row r="24" spans="5:21" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E24" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G24" s="6">
-        <v>3</v>
-      </c>
-      <c r="H24" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="I24" s="13">
+      <c r="G24" s="5">
+        <v>3</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="I24" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -2040,23 +1953,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="2:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="6" t="s">
+    <row r="25" spans="5:21" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E25" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G25" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="H25" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="I25" s="13">
+      <c r="G25" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="I25" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -2069,23 +1979,20 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="26" spans="2:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="6" t="s">
+    <row r="26" spans="5:21" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E26" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G26" s="6">
-        <v>3</v>
-      </c>
-      <c r="H26" s="22" t="s">
+      <c r="G26" s="5">
+        <v>3</v>
+      </c>
+      <c r="H26" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="I26" s="13">
+      <c r="I26" s="11">
         <f t="shared" si="0"/>
         <v>2.75</v>
       </c>
@@ -2098,23 +2005,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="2:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="6" t="s">
+    <row r="27" spans="5:21" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E27" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G27" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="H27" s="22" t="s">
+      <c r="G27" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="H27" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="I27" s="13">
+      <c r="I27" s="11">
         <f t="shared" si="0"/>
         <v>3.25</v>
       </c>
@@ -2127,23 +2031,20 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="28" spans="2:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="6" t="s">
+    <row r="28" spans="5:21" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E28" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="5">
         <v>2</v>
       </c>
-      <c r="H28" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="I28" s="13">
+      <c r="H28" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="I28" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -2156,23 +2057,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="2:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="6" t="s">
+    <row r="29" spans="5:21" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E29" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G29" s="6">
-        <v>3</v>
-      </c>
-      <c r="H29" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="I29" s="13">
+      <c r="G29" s="5">
+        <v>3</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="I29" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -2185,23 +2083,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="2:21" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="6" t="s">
+    <row r="30" spans="5:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E30" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F30" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G30" s="6">
-        <v>3</v>
-      </c>
-      <c r="H30" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="I30" s="13">
+      <c r="G30" s="5">
+        <v>3</v>
+      </c>
+      <c r="H30" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="I30" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -2214,23 +2109,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="2:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="6" t="s">
+    <row r="31" spans="5:21" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E31" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G31" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="H31" s="22" t="s">
+      <c r="G31" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="H31" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="I31" s="13">
+      <c r="I31" s="11">
         <f t="shared" si="0"/>
         <v>3.25</v>
       </c>
@@ -2243,23 +2135,20 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="32" spans="2:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="6" t="s">
+    <row r="32" spans="5:21" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E32" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G32" s="6">
-        <v>3</v>
-      </c>
-      <c r="H32" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="I32" s="13">
+      <c r="G32" s="5">
+        <v>3</v>
+      </c>
+      <c r="H32" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="I32" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -2272,23 +2161,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="6" t="s">
+    <row r="33" spans="5:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E33" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G33" s="6">
-        <v>3</v>
-      </c>
-      <c r="H33" s="22" t="s">
+      <c r="G33" s="5">
+        <v>3</v>
+      </c>
+      <c r="H33" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="I33" s="13">
+      <c r="I33" s="11">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
@@ -2301,23 +2187,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="6" t="s">
+    <row r="34" spans="5:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E34" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G34" s="6">
-        <v>3</v>
-      </c>
-      <c r="H34" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="I34" s="13">
+      <c r="G34" s="5">
+        <v>3</v>
+      </c>
+      <c r="H34" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="I34" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -2330,23 +2213,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="6" t="s">
+    <row r="35" spans="5:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E35" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G35" s="5">
         <v>2</v>
       </c>
-      <c r="H35" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="I35" s="13">
+      <c r="H35" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="I35" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -2359,23 +2239,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="6" t="s">
+    <row r="36" spans="5:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E36" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G36" s="6">
-        <v>3</v>
-      </c>
-      <c r="H36" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="I36" s="13">
+      <c r="G36" s="5">
+        <v>3</v>
+      </c>
+      <c r="H36" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="I36" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -2388,23 +2265,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="6" t="s">
+    <row r="37" spans="5:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E37" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F37" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G37" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="H37" s="22" t="s">
+      <c r="G37" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="H37" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="I37" s="13">
+      <c r="I37" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -2417,23 +2291,20 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="38" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="6" t="s">
+    <row r="38" spans="5:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E38" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="F38" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G38" s="6">
-        <v>3</v>
-      </c>
-      <c r="H38" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="I38" s="13">
+      <c r="G38" s="5">
+        <v>3</v>
+      </c>
+      <c r="H38" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="I38" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -2446,23 +2317,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="6" t="s">
+    <row r="39" spans="5:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E39" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F39" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G39" s="6">
-        <v>3</v>
-      </c>
-      <c r="H39" s="22" t="s">
+      <c r="G39" s="5">
+        <v>3</v>
+      </c>
+      <c r="H39" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="I39" s="13">
+      <c r="I39" s="11">
         <f t="shared" si="0"/>
         <v>3.25</v>
       </c>
@@ -2475,23 +2343,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="6" t="s">
+    <row r="40" spans="5:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E40" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F40" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G40" s="6">
-        <v>3</v>
-      </c>
-      <c r="H40" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="I40" s="13">
+      <c r="G40" s="5">
+        <v>3</v>
+      </c>
+      <c r="H40" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="I40" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -2504,23 +2369,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="6" t="s">
+    <row r="41" spans="5:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E41" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F41" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G41" s="6">
-        <v>3</v>
-      </c>
-      <c r="H41" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="I41" s="13">
+      <c r="G41" s="5">
+        <v>3</v>
+      </c>
+      <c r="H41" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="I41" s="11">
         <f t="shared" ref="I41:I72" si="3">IFERROR(VLOOKUP(H41,$T$8:$U$19,2,FALSE),0)</f>
         <v>4</v>
       </c>
@@ -2533,23 +2395,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="6" t="s">
+    <row r="42" spans="5:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E42" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F42" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G42" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="H42" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="I42" s="13">
+      <c r="G42" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="H42" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="I42" s="11">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
@@ -2562,23 +2421,20 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="43" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="6" t="s">
+    <row r="43" spans="5:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E43" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="F43" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G43" s="6">
-        <v>3</v>
-      </c>
-      <c r="H43" s="22" t="s">
+      <c r="G43" s="5">
+        <v>3</v>
+      </c>
+      <c r="H43" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="I43" s="13">
+      <c r="I43" s="11">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
@@ -2591,23 +2447,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="6" t="s">
+    <row r="44" spans="5:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E44" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="F44" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G44" s="6">
-        <v>3</v>
-      </c>
-      <c r="H44" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="I44" s="13">
+      <c r="G44" s="5">
+        <v>3</v>
+      </c>
+      <c r="H44" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="I44" s="11">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
@@ -2620,23 +2473,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="6" t="s">
+    <row r="45" spans="5:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E45" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="F45" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G45" s="6">
-        <v>3</v>
-      </c>
-      <c r="H45" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="I45" s="13">
+      <c r="G45" s="5">
+        <v>3</v>
+      </c>
+      <c r="H45" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="I45" s="11">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
@@ -2649,23 +2499,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="6" t="s">
+    <row r="46" spans="5:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E46" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="F46" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G46" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="H46" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="I46" s="13">
+      <c r="G46" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="H46" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="I46" s="11">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
@@ -2678,23 +2525,20 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="47" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="6" t="s">
+    <row r="47" spans="5:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E47" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="F47" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G47" s="6">
-        <v>3</v>
-      </c>
-      <c r="H47" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="I47" s="13">
+      <c r="G47" s="5">
+        <v>3</v>
+      </c>
+      <c r="H47" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="I47" s="11">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
@@ -2707,23 +2551,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="6" t="s">
+    <row r="48" spans="5:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E48" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="F48" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="G48" s="6">
-        <v>3</v>
-      </c>
-      <c r="H48" s="22" t="s">
+      <c r="G48" s="5">
+        <v>3</v>
+      </c>
+      <c r="H48" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="I48" s="13">
+      <c r="I48" s="11">
         <f t="shared" si="3"/>
         <v>3.5</v>
       </c>
@@ -2736,23 +2577,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="6" t="s">
+    <row r="49" spans="5:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E49" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="F49" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G49" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="H49" s="22" t="s">
+      <c r="G49" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="H49" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="I49" s="13">
+      <c r="I49" s="11">
         <f t="shared" si="3"/>
         <v>3.25</v>
       </c>
@@ -2765,23 +2603,20 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="50" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="6" t="s">
+    <row r="50" spans="5:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E50" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="F50" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G50" s="6">
+      <c r="G50" s="5">
         <v>2</v>
       </c>
-      <c r="H50" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="I50" s="13">
+      <c r="H50" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="I50" s="11">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
@@ -2794,23 +2629,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="6" t="s">
+    <row r="51" spans="5:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E51" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F51" s="5" t="s">
+      <c r="F51" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G51" s="6">
-        <v>3</v>
-      </c>
-      <c r="H51" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="I51" s="13">
+      <c r="G51" s="5">
+        <v>3</v>
+      </c>
+      <c r="H51" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="I51" s="11">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
@@ -2823,23 +2655,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="6" t="s">
+    <row r="52" spans="5:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E52" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="F52" s="5" t="s">
+      <c r="F52" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="G52" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="H52" s="22" t="s">
+      <c r="G52" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="H52" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="I52" s="13">
+      <c r="I52" s="11">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
@@ -2852,23 +2681,20 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="6" t="s">
+    <row r="53" spans="5:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E53" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F53" s="5" t="s">
+      <c r="F53" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G53" s="6">
-        <v>3</v>
-      </c>
-      <c r="H53" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="I53" s="13">
+      <c r="G53" s="5">
+        <v>3</v>
+      </c>
+      <c r="H53" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="I53" s="11">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
@@ -2881,23 +2707,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="6" t="s">
+    <row r="54" spans="5:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E54" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F54" s="5" t="s">
+      <c r="F54" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G54" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="H54" s="22" t="s">
+      <c r="G54" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="H54" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="I54" s="13">
+      <c r="I54" s="11">
         <f t="shared" si="3"/>
         <v>3.5</v>
       </c>
@@ -2910,23 +2733,20 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="55" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="6" t="s">
+    <row r="55" spans="5:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E55" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F55" s="5" t="s">
+      <c r="F55" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G55" s="6">
-        <v>3</v>
-      </c>
-      <c r="H55" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="I55" s="13">
+      <c r="G55" s="5">
+        <v>3</v>
+      </c>
+      <c r="H55" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="I55" s="11">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
@@ -2939,23 +2759,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="6" t="s">
+    <row r="56" spans="5:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E56" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="F56" s="5" t="s">
+      <c r="F56" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="G56" s="6">
-        <v>3</v>
-      </c>
-      <c r="H56" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="I56" s="13">
+      <c r="G56" s="5">
+        <v>3</v>
+      </c>
+      <c r="H56" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="I56" s="11">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
@@ -2968,23 +2785,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="6" t="s">
+    <row r="57" spans="5:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E57" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="F57" s="5" t="s">
+      <c r="F57" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G57" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="H57" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="I57" s="13">
+      <c r="G57" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="H57" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="I57" s="11">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
@@ -2997,23 +2811,20 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="58" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="6" t="s">
+    <row r="58" spans="5:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E58" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="F58" s="5" t="s">
+      <c r="F58" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G58" s="6">
-        <v>3</v>
-      </c>
-      <c r="H58" s="22" t="s">
+      <c r="G58" s="5">
+        <v>3</v>
+      </c>
+      <c r="H58" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="I58" s="13">
+      <c r="I58" s="11">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
@@ -3026,23 +2837,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="6" t="s">
+    <row r="59" spans="5:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E59" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="F59" s="5" t="s">
+      <c r="F59" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G59" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="H59" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="I59" s="13">
+      <c r="G59" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="H59" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="I59" s="11">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
@@ -3055,23 +2863,20 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="60" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="6" t="s">
+    <row r="60" spans="5:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E60" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="F60" s="5" t="s">
+      <c r="F60" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="G60" s="6">
-        <v>3</v>
-      </c>
-      <c r="H60" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="I60" s="13">
+      <c r="G60" s="5">
+        <v>3</v>
+      </c>
+      <c r="H60" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="I60" s="11">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
@@ -3084,23 +2889,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="6" t="s">
+    <row r="61" spans="5:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E61" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="F61" s="5" t="s">
+      <c r="F61" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G61" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="H61" s="22" t="s">
+      <c r="G61" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="H61" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="I61" s="13">
+      <c r="I61" s="11">
         <f t="shared" si="3"/>
         <v>2.75</v>
       </c>
@@ -3113,23 +2915,20 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="62" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="6" t="s">
+    <row r="62" spans="5:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E62" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="F62" s="5" t="s">
+      <c r="F62" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="G62" s="6">
+      <c r="G62" s="5">
         <v>2</v>
       </c>
-      <c r="H62" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="I62" s="13">
+      <c r="H62" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="I62" s="11">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
@@ -3142,23 +2941,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="6" t="s">
+    <row r="63" spans="5:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E63" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="F63" s="5" t="s">
+      <c r="F63" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="G63" s="6">
-        <v>3</v>
-      </c>
-      <c r="H63" s="22" t="s">
+      <c r="G63" s="5">
+        <v>3</v>
+      </c>
+      <c r="H63" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="I63" s="13">
+      <c r="I63" s="11">
         <f t="shared" si="3"/>
         <v>3.25</v>
       </c>
@@ -3171,23 +2967,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="6" t="s">
+    <row r="64" spans="5:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E64" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="F64" s="5" t="s">
+      <c r="F64" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="G64" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="H64" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="I64" s="13">
+      <c r="G64" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="H64" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="I64" s="11">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
@@ -3200,23 +2993,20 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="65" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="6" t="s">
+    <row r="65" spans="5:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E65" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="F65" s="5" t="s">
+      <c r="F65" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="G65" s="6">
-        <v>3</v>
-      </c>
-      <c r="H65" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="I65" s="13">
+      <c r="G65" s="5">
+        <v>3</v>
+      </c>
+      <c r="H65" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="I65" s="11">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
@@ -3229,23 +3019,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="6" t="s">
+    <row r="66" spans="5:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E66" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="F66" s="5" t="s">
+      <c r="F66" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="G66" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="H66" s="22" t="s">
+      <c r="G66" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="H66" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="I66" s="13">
+      <c r="I66" s="11">
         <f t="shared" si="3"/>
         <v>3.25</v>
       </c>
@@ -3258,23 +3045,20 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="67" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="6" t="s">
+    <row r="67" spans="5:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E67" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F67" s="5" t="s">
+      <c r="F67" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="G67" s="6">
-        <v>3</v>
-      </c>
-      <c r="H67" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="I67" s="13">
+      <c r="G67" s="5">
+        <v>3</v>
+      </c>
+      <c r="H67" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="I67" s="11">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
@@ -3287,23 +3071,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="6" t="s">
+    <row r="68" spans="5:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E68" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="F68" s="5" t="s">
+      <c r="F68" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="G68" s="6">
+      <c r="G68" s="5">
         <v>2</v>
       </c>
-      <c r="H68" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="I68" s="13">
+      <c r="H68" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="I68" s="11">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
@@ -3316,23 +3097,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="6" t="s">
+    <row r="69" spans="5:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E69" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="F69" s="5" t="s">
+      <c r="F69" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="G69" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="H69" s="22" t="s">
+      <c r="G69" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="H69" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="I69" s="13">
+      <c r="I69" s="11">
         <f t="shared" si="3"/>
         <v>3.25</v>
       </c>
@@ -3345,23 +3123,20 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="70" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="6" t="s">
+    <row r="70" spans="5:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E70" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="F70" s="5" t="s">
+      <c r="F70" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="G70" s="6">
-        <v>3</v>
-      </c>
-      <c r="H70" s="22" t="s">
+      <c r="G70" s="5">
+        <v>3</v>
+      </c>
+      <c r="H70" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="I70" s="13">
+      <c r="I70" s="11">
         <f t="shared" si="3"/>
         <v>3.25</v>
       </c>
@@ -3374,23 +3149,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="6" t="s">
+    <row r="71" spans="5:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E71" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="F71" s="5" t="s">
+      <c r="F71" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="G71" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="H71" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="I71" s="13">
+      <c r="G71" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="H71" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="I71" s="11">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
@@ -3403,23 +3175,20 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="72" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="6" t="s">
+    <row r="72" spans="5:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E72" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="F72" s="5" t="s">
+      <c r="F72" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="G72" s="6">
-        <v>3</v>
-      </c>
-      <c r="H72" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="I72" s="13">
+      <c r="G72" s="5">
+        <v>3</v>
+      </c>
+      <c r="H72" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="I72" s="11">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
@@ -3432,23 +3201,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="6" t="s">
+    <row r="73" spans="5:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E73" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="F73" s="5" t="s">
+      <c r="F73" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="G73" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="H73" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="I73" s="13">
+      <c r="G73" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="H73" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="I73" s="11">
         <f t="shared" ref="I73" si="4">IFERROR(VLOOKUP(H73,$T$8:$U$19,2,FALSE),0)</f>
         <v>4</v>
       </c>
@@ -3461,23 +3227,20 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="74" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="6" t="s">
+    <row r="74" spans="5:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E74" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="F74" s="5" t="s">
+      <c r="F74" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="G74" s="6">
-        <v>3</v>
-      </c>
-      <c r="H74" s="22" t="s">
+      <c r="G74" s="5">
+        <v>3</v>
+      </c>
+      <c r="H74" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="I74" s="13">
+      <c r="I74" s="11">
         <f t="shared" ref="I74:I101" si="5">IFERROR(VLOOKUP(H74,$T$8:$U$19,2,FALSE),0)</f>
         <v>3</v>
       </c>
@@ -3490,23 +3253,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="6" t="s">
+    <row r="75" spans="5:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E75" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="F75" s="5" t="s">
+      <c r="F75" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="G75" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="H75" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="I75" s="13">
+      <c r="G75" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="H75" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="I75" s="11">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
@@ -3519,23 +3279,20 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="76" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="6" t="s">
+    <row r="76" spans="5:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E76" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F76" s="5" t="s">
+      <c r="F76" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="G76" s="6">
-        <v>3</v>
-      </c>
-      <c r="H76" s="22" t="s">
+      <c r="G76" s="5">
+        <v>3</v>
+      </c>
+      <c r="H76" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="I76" s="13">
+      <c r="I76" s="11">
         <f t="shared" si="5"/>
         <v>3.25</v>
       </c>
@@ -3548,23 +3305,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="6" t="s">
+    <row r="77" spans="5:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E77" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="F77" s="5" t="s">
+      <c r="F77" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="G77" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="H77" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="I77" s="13">
+      <c r="G77" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="H77" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="I77" s="11">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
@@ -3577,23 +3331,20 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="78" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="6" t="s">
+    <row r="78" spans="5:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E78" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="F78" s="5" t="s">
+      <c r="F78" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="G78" s="6">
-        <v>3</v>
-      </c>
-      <c r="H78" s="22" t="s">
+      <c r="G78" s="5">
+        <v>3</v>
+      </c>
+      <c r="H78" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="I78" s="13">
+      <c r="I78" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3606,23 +3357,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="6" t="s">
+    <row r="79" spans="5:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E79" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F79" s="5" t="s">
+      <c r="F79" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="G79" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="H79" s="22" t="s">
+      <c r="G79" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="H79" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="I79" s="13">
+      <c r="I79" s="11">
         <f t="shared" si="5"/>
         <v>3.75</v>
       </c>
@@ -3635,23 +3383,20 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="80" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="6" t="s">
+    <row r="80" spans="5:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E80" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="F80" s="5" t="s">
+      <c r="F80" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="G80" s="6">
-        <v>3</v>
-      </c>
-      <c r="H80" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="I80" s="13">
+      <c r="G80" s="5">
+        <v>3</v>
+      </c>
+      <c r="H80" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="I80" s="11">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
@@ -3664,23 +3409,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="6" t="s">
+    <row r="81" spans="5:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E81" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F81" s="5" t="s">
+      <c r="F81" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="G81" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="H81" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="I81" s="13">
+      <c r="G81" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="H81" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="I81" s="11">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
@@ -3693,23 +3435,20 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="82" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="6" t="s">
+    <row r="82" spans="5:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E82" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="F82" s="5" t="s">
+      <c r="F82" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="G82" s="6">
-        <v>3</v>
-      </c>
-      <c r="H82" s="22" t="s">
+      <c r="G82" s="5">
+        <v>3</v>
+      </c>
+      <c r="H82" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="I82" s="13">
+      <c r="I82" s="11">
         <f t="shared" si="5"/>
         <v>3.25</v>
       </c>
@@ -3722,23 +3461,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="6" t="s">
+    <row r="83" spans="5:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E83" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="F83" s="5" t="s">
+      <c r="F83" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="G83" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="H83" s="22" t="s">
+      <c r="G83" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="H83" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="I83" s="13">
+      <c r="I83" s="11">
         <f t="shared" si="5"/>
         <v>3.5</v>
       </c>
@@ -3751,23 +3487,20 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="84" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="6" t="s">
+    <row r="84" spans="5:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E84" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="F84" s="5" t="s">
+      <c r="F84" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="G84" s="6">
-        <v>3</v>
-      </c>
-      <c r="H84" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="I84" s="13">
+      <c r="G84" s="5">
+        <v>3</v>
+      </c>
+      <c r="H84" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="I84" s="11">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
@@ -3780,23 +3513,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="6" t="s">
+    <row r="85" spans="5:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E85" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="F85" s="5" t="s">
+      <c r="F85" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="G85" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="H85" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="I85" s="13">
+      <c r="G85" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="H85" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="I85" s="11">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
@@ -3809,23 +3539,20 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="86" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="6" t="s">
+    <row r="86" spans="5:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E86" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F86" s="5" t="s">
+      <c r="F86" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="G86" s="6">
-        <v>3</v>
-      </c>
-      <c r="H86" s="22" t="s">
+      <c r="G86" s="5">
+        <v>3</v>
+      </c>
+      <c r="H86" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="I86" s="13">
+      <c r="I86" s="11">
         <f t="shared" si="5"/>
         <v>3.25</v>
       </c>
@@ -3838,23 +3565,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="6" t="s">
+    <row r="87" spans="5:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E87" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="F87" s="5" t="s">
+      <c r="F87" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="G87" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="H87" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="I87" s="13">
+      <c r="G87" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="H87" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="I87" s="11">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
@@ -3867,23 +3591,20 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="88" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="6" t="s">
+    <row r="88" spans="5:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E88" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="F88" s="5" t="s">
+      <c r="F88" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="G88" s="6">
-        <v>3</v>
-      </c>
-      <c r="H88" s="22" t="s">
+      <c r="G88" s="5">
+        <v>3</v>
+      </c>
+      <c r="H88" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="I88" s="13">
+      <c r="I88" s="11">
         <f t="shared" si="5"/>
         <v>2.5</v>
       </c>
@@ -3896,23 +3617,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="6" t="s">
+    <row r="89" spans="5:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E89" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F89" s="5" t="s">
+      <c r="F89" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="G89" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="H89" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="I89" s="13">
+      <c r="G89" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="H89" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="I89" s="11">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
@@ -3925,23 +3643,20 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="90" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="6" t="s">
+    <row r="90" spans="5:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E90" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="F90" s="5" t="s">
+      <c r="F90" s="4" t="s">
         <v>176</v>
       </c>
       <c r="G90" s="2">
         <v>3</v>
       </c>
-      <c r="H90" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="I90" s="13">
+      <c r="H90" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="I90" s="11">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
@@ -3954,23 +3669,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="6" t="s">
+    <row r="91" spans="5:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E91" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="F91" s="5" t="s">
+      <c r="F91" s="4" t="s">
         <v>177</v>
       </c>
       <c r="G91" s="2">
         <v>1.5</v>
       </c>
-      <c r="H91" s="22" t="s">
+      <c r="H91" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="I91" s="13">
+      <c r="I91" s="11">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
@@ -3983,23 +3695,20 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="92" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
-      <c r="E92" s="6" t="s">
+    <row r="92" spans="5:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E92" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="F92" s="5" t="s">
+      <c r="F92" s="4" t="s">
         <v>178</v>
       </c>
       <c r="G92" s="2">
         <v>0</v>
       </c>
-      <c r="H92" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="I92" s="13">
+      <c r="H92" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="I92" s="11">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
@@ -4012,23 +3721,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
-      <c r="E93" s="6" t="s">
+    <row r="93" spans="5:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E93" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="F93" s="5" t="s">
+      <c r="F93" s="4" t="s">
         <v>178</v>
       </c>
       <c r="G93" s="2">
         <v>0</v>
       </c>
-      <c r="H93" s="22" t="s">
+      <c r="H93" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="I93" s="13">
+      <c r="I93" s="11">
         <f t="shared" si="5"/>
         <v>3.75</v>
       </c>
@@ -4041,23 +3747,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
-      <c r="E94" s="6" t="s">
+    <row r="94" spans="5:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E94" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="F94" s="5" t="s">
+      <c r="F94" s="4" t="s">
         <v>179</v>
       </c>
       <c r="G94" s="2">
         <v>3</v>
       </c>
-      <c r="H94" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="I94" s="13">
+      <c r="H94" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="I94" s="11">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
@@ -4070,23 +3773,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
-      <c r="E95" s="6" t="s">
+    <row r="95" spans="5:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E95" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F95" s="5" t="s">
+      <c r="F95" s="4" t="s">
         <v>182</v>
       </c>
       <c r="G95" s="2">
         <v>1.5</v>
       </c>
-      <c r="H95" s="22" t="s">
+      <c r="H95" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="I95" s="13">
+      <c r="I95" s="11">
         <f t="shared" si="5"/>
         <v>3.5</v>
       </c>
@@ -4099,23 +3799,20 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="96" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="6" t="s">
+    <row r="96" spans="5:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E96" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="F96" s="5" t="s">
+      <c r="F96" s="4" t="s">
         <v>180</v>
       </c>
       <c r="G96" s="2">
         <v>3</v>
       </c>
-      <c r="H96" s="22" t="s">
+      <c r="H96" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="I96" s="13">
+      <c r="I96" s="11">
         <f t="shared" si="5"/>
         <v>2.25</v>
       </c>
@@ -4128,23 +3825,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
-      <c r="E97" s="6" t="s">
+    <row r="97" spans="5:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E97" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="F97" s="5" t="s">
+      <c r="F97" s="4" t="s">
         <v>181</v>
       </c>
       <c r="G97" s="2">
         <v>1.5</v>
       </c>
-      <c r="H97" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="I97" s="13">
+      <c r="H97" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="I97" s="11">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
@@ -4157,23 +3851,20 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="98" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
-      <c r="D98" s="3"/>
-      <c r="E98" s="6" t="s">
+    <row r="98" spans="5:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E98" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="F98" s="5" t="s">
+      <c r="F98" s="4" t="s">
         <v>183</v>
       </c>
       <c r="G98" s="2">
         <v>3</v>
       </c>
-      <c r="H98" s="22" t="s">
+      <c r="H98" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="I98" s="13">
+      <c r="I98" s="11">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
@@ -4186,23 +3877,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="2:11" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="6" t="s">
+    <row r="99" spans="5:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="E99" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="F99" s="11" t="s">
+      <c r="F99" s="9" t="s">
         <v>184</v>
       </c>
       <c r="G99" s="2">
         <v>1.5</v>
       </c>
-      <c r="H99" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="I99" s="13">
+      <c r="H99" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="I99" s="11">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
@@ -4215,23 +3903,20 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="100" spans="2:11" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
-      <c r="E100" s="6" t="s">
+    <row r="100" spans="5:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="E100" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="F100" s="11" t="s">
+      <c r="F100" s="9" t="s">
         <v>185</v>
       </c>
       <c r="G100" s="2">
         <v>3</v>
       </c>
-      <c r="H100" s="22" t="s">
+      <c r="H100" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="I100" s="13">
+      <c r="I100" s="11">
         <f t="shared" si="5"/>
         <v>3.5</v>
       </c>
@@ -4244,23 +3929,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="2:11" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
-      <c r="D101" s="3"/>
-      <c r="E101" s="6" t="s">
+    <row r="101" spans="5:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="E101" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="F101" s="11" t="s">
+      <c r="F101" s="9" t="s">
         <v>186</v>
       </c>
       <c r="G101" s="2">
         <v>1.5</v>
       </c>
-      <c r="H101" s="22" t="s">
+      <c r="H101" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="I101" s="13">
+      <c r="I101" s="11">
         <f t="shared" si="5"/>
         <v>2.5</v>
       </c>
@@ -4273,1297 +3955,63 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
-      <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
-      <c r="F102" s="7"/>
-      <c r="G102" s="3"/>
-      <c r="H102" s="3"/>
-      <c r="I102" s="3"/>
-      <c r="J102" s="3"/>
-      <c r="K102" s="3"/>
-    </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
-      <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
-      <c r="F103" s="7"/>
-      <c r="G103" s="3"/>
-      <c r="H103" s="3"/>
-      <c r="I103" s="3"/>
-      <c r="J103" s="3"/>
-      <c r="K103" s="3"/>
-    </row>
-    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B104" s="3"/>
-      <c r="C104" s="3"/>
-      <c r="D104" s="3"/>
-      <c r="E104" s="3"/>
-      <c r="F104" s="7"/>
-      <c r="G104" s="3"/>
-      <c r="H104" s="3"/>
-      <c r="I104" s="3"/>
-      <c r="J104" s="3"/>
-      <c r="K104" s="3"/>
-    </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
-      <c r="E105" s="3"/>
-      <c r="F105" s="7"/>
-      <c r="G105" s="3"/>
-      <c r="H105" s="3"/>
-      <c r="I105" s="3"/>
-      <c r="J105" s="3"/>
-      <c r="K105" s="3"/>
-    </row>
-    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B106" s="3"/>
-      <c r="C106" s="3"/>
-      <c r="D106" s="3"/>
-      <c r="E106" s="3"/>
-      <c r="F106" s="7"/>
-      <c r="G106" s="3"/>
-      <c r="H106" s="3"/>
-      <c r="I106" s="3"/>
-      <c r="J106" s="3"/>
-      <c r="K106" s="3"/>
-    </row>
-    <row r="107" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="3"/>
-      <c r="C107" s="3"/>
-      <c r="D107" s="3"/>
-      <c r="E107" s="3"/>
-      <c r="F107" s="19" t="s">
+    <row r="107" spans="5:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F107" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="G107" s="19"/>
-      <c r="H107" s="3"/>
-      <c r="I107" s="3"/>
-      <c r="J107" s="3"/>
-      <c r="K107" s="3"/>
-    </row>
-    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B108" s="3"/>
-      <c r="C108" s="3"/>
-      <c r="D108" s="3"/>
-      <c r="E108" s="3"/>
-      <c r="F108" s="21"/>
-      <c r="G108" s="19"/>
-      <c r="H108" s="3"/>
-      <c r="I108" s="3"/>
-      <c r="J108" s="3"/>
-      <c r="K108" s="3"/>
-    </row>
-    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B109" s="3"/>
-      <c r="C109" s="3"/>
-      <c r="D109" s="3"/>
-      <c r="E109" s="3"/>
-      <c r="F109" s="21"/>
-      <c r="G109" s="19"/>
-      <c r="H109" s="3"/>
-      <c r="I109" s="3"/>
-      <c r="J109" s="3"/>
-      <c r="K109" s="3"/>
-    </row>
-    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B110" s="3"/>
-      <c r="C110" s="3"/>
-      <c r="D110" s="3"/>
-      <c r="E110" s="3"/>
-      <c r="F110" s="21"/>
-      <c r="G110" s="19"/>
-      <c r="H110" s="3"/>
-      <c r="I110" s="3"/>
-      <c r="J110" s="3"/>
-      <c r="K110" s="3"/>
-    </row>
-    <row r="111" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B111" s="3"/>
-      <c r="C111" s="3"/>
-      <c r="D111" s="3"/>
-      <c r="E111" s="3"/>
-      <c r="F111" s="21"/>
-      <c r="G111" s="19"/>
-      <c r="H111" s="3"/>
-      <c r="I111" s="3"/>
-      <c r="J111" s="3"/>
-      <c r="K111" s="3"/>
-    </row>
-    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B112" s="3"/>
-      <c r="C112" s="3"/>
-      <c r="D112" s="3"/>
-      <c r="E112" s="3"/>
-      <c r="F112" s="21"/>
-      <c r="G112" s="19"/>
-      <c r="H112" s="3"/>
-      <c r="I112" s="3"/>
-      <c r="J112" s="3"/>
-      <c r="K112" s="3"/>
-    </row>
-    <row r="113" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B113" s="3"/>
-      <c r="C113" s="3"/>
-      <c r="D113" s="3"/>
-      <c r="E113" s="3"/>
-      <c r="F113" s="19"/>
-      <c r="G113" s="19"/>
-      <c r="H113" s="3"/>
-      <c r="I113" s="3"/>
-      <c r="J113" s="3"/>
-      <c r="K113" s="3"/>
-    </row>
-    <row r="114" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B114" s="3"/>
-      <c r="C114" s="3"/>
-      <c r="D114" s="3"/>
-      <c r="E114" s="3"/>
-      <c r="F114" s="19"/>
-      <c r="G114" s="19"/>
-      <c r="H114" s="3"/>
-      <c r="I114" s="3"/>
-      <c r="J114" s="3"/>
-      <c r="K114" s="3"/>
-    </row>
-    <row r="115" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B115" s="3"/>
-      <c r="C115" s="3"/>
-      <c r="D115" s="3"/>
-      <c r="E115" s="3"/>
-      <c r="F115" s="19"/>
-      <c r="G115" s="19"/>
-      <c r="H115" s="3"/>
-      <c r="I115" s="3"/>
-      <c r="J115" s="3"/>
-      <c r="K115" s="3"/>
-    </row>
-    <row r="116" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B116" s="3"/>
-      <c r="C116" s="3"/>
-      <c r="D116" s="3"/>
-      <c r="E116" s="3"/>
-      <c r="F116" s="19"/>
-      <c r="G116" s="19"/>
-      <c r="H116" s="3"/>
-      <c r="I116" s="3"/>
-      <c r="J116" s="3"/>
-      <c r="K116" s="3"/>
-    </row>
-    <row r="117" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B117" s="3"/>
-      <c r="C117" s="3"/>
-      <c r="D117" s="3"/>
-      <c r="E117" s="3"/>
-      <c r="F117" s="19"/>
-      <c r="G117" s="19"/>
-      <c r="H117" s="3"/>
-      <c r="I117" s="3"/>
-      <c r="J117" s="3"/>
-      <c r="K117" s="3"/>
-    </row>
-    <row r="118" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B118" s="3"/>
-      <c r="C118" s="3"/>
-      <c r="D118" s="3"/>
-      <c r="E118" s="3"/>
-      <c r="F118" s="19"/>
-      <c r="G118" s="19"/>
-      <c r="H118" s="3"/>
-      <c r="I118" s="3"/>
-      <c r="J118" s="3"/>
-      <c r="K118" s="3"/>
-    </row>
-    <row r="119" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B119" s="3"/>
-      <c r="C119" s="3"/>
-      <c r="D119" s="3"/>
-      <c r="E119" s="3"/>
-      <c r="F119" s="19"/>
-      <c r="G119" s="19"/>
-      <c r="H119" s="3"/>
-      <c r="I119" s="3"/>
-      <c r="J119" s="3"/>
-      <c r="K119" s="3"/>
-    </row>
-    <row r="120" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B120" s="3"/>
-      <c r="C120" s="3"/>
-      <c r="D120" s="3"/>
-      <c r="E120" s="3"/>
-      <c r="F120" s="19"/>
-      <c r="G120" s="19"/>
-      <c r="H120" s="3"/>
-      <c r="I120" s="3"/>
-      <c r="J120" s="3"/>
-      <c r="K120" s="3"/>
-    </row>
-    <row r="121" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B121" s="3"/>
-      <c r="C121" s="3"/>
-      <c r="D121" s="3"/>
-      <c r="E121" s="3"/>
-      <c r="F121" s="7"/>
-      <c r="G121" s="3"/>
-      <c r="H121" s="3"/>
-      <c r="I121" s="3"/>
-      <c r="J121" s="3"/>
-      <c r="K121" s="3"/>
-    </row>
-    <row r="122" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B122" s="3"/>
-      <c r="C122" s="3"/>
-      <c r="D122" s="3"/>
-      <c r="E122" s="3"/>
-      <c r="F122" s="7"/>
-      <c r="G122" s="3"/>
-      <c r="H122" s="3"/>
-      <c r="I122" s="3"/>
-      <c r="J122" s="3"/>
-      <c r="K122" s="3"/>
-    </row>
-    <row r="123" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B123" s="3"/>
-      <c r="C123" s="3"/>
-      <c r="D123" s="3"/>
-      <c r="E123" s="3"/>
-      <c r="F123" s="7"/>
-      <c r="G123" s="3"/>
-      <c r="H123" s="3"/>
-      <c r="I123" s="3"/>
-      <c r="J123" s="3"/>
-      <c r="K123" s="3"/>
-    </row>
-    <row r="124" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B124" s="3"/>
-      <c r="C124" s="3"/>
-      <c r="D124" s="3"/>
-      <c r="E124" s="3"/>
-      <c r="F124" s="7"/>
-      <c r="G124" s="3"/>
-      <c r="H124" s="3"/>
-      <c r="I124" s="3"/>
-      <c r="J124" s="3"/>
-      <c r="K124" s="3"/>
-    </row>
-    <row r="125" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B125" s="3"/>
-      <c r="C125" s="3"/>
-      <c r="D125" s="3"/>
-      <c r="E125" s="3"/>
-      <c r="F125" s="7"/>
-      <c r="G125" s="3"/>
-      <c r="H125" s="3"/>
-      <c r="I125" s="3"/>
-      <c r="J125" s="3"/>
-      <c r="K125" s="3"/>
-    </row>
-    <row r="126" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B126" s="3"/>
-      <c r="C126" s="3"/>
-      <c r="D126" s="3"/>
-      <c r="E126" s="3"/>
-      <c r="F126" s="7"/>
-      <c r="G126" s="3"/>
-      <c r="H126" s="3"/>
-      <c r="I126" s="3"/>
-      <c r="J126" s="3"/>
-      <c r="K126" s="3"/>
-    </row>
-    <row r="127" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B127" s="3"/>
-      <c r="C127" s="3"/>
-      <c r="D127" s="3"/>
-      <c r="E127" s="3"/>
-      <c r="F127" s="7"/>
-      <c r="G127" s="3"/>
-      <c r="H127" s="3"/>
-      <c r="I127" s="3"/>
-      <c r="J127" s="3"/>
-      <c r="K127" s="3"/>
-    </row>
-    <row r="128" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B128" s="3"/>
-      <c r="C128" s="3"/>
-      <c r="D128" s="3"/>
-      <c r="E128" s="3"/>
-      <c r="F128" s="7"/>
-      <c r="G128" s="3"/>
-      <c r="H128" s="3"/>
-      <c r="I128" s="3"/>
-      <c r="J128" s="3"/>
-      <c r="K128" s="3"/>
-    </row>
-    <row r="129" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B129" s="3"/>
-      <c r="C129" s="3"/>
-      <c r="D129" s="3"/>
-      <c r="E129" s="3"/>
-      <c r="F129" s="7"/>
-      <c r="G129" s="3"/>
-      <c r="H129" s="3"/>
-      <c r="I129" s="3"/>
-      <c r="J129" s="3"/>
-      <c r="K129" s="3"/>
-    </row>
-    <row r="130" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B130" s="3"/>
-      <c r="C130" s="3"/>
-      <c r="D130" s="3"/>
-      <c r="E130" s="3"/>
-      <c r="F130" s="7"/>
-      <c r="G130" s="3"/>
-      <c r="H130" s="3"/>
-      <c r="I130" s="3"/>
-      <c r="J130" s="3"/>
-      <c r="K130" s="3"/>
-    </row>
-    <row r="131" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B131" s="3"/>
-      <c r="C131" s="3"/>
-      <c r="D131" s="3"/>
-      <c r="E131" s="3"/>
-      <c r="F131" s="7"/>
-      <c r="G131" s="3"/>
-      <c r="H131" s="3"/>
-      <c r="I131" s="3"/>
-      <c r="J131" s="3"/>
-      <c r="K131" s="3"/>
-    </row>
-    <row r="132" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B132" s="3"/>
-      <c r="C132" s="3"/>
-      <c r="D132" s="3"/>
-      <c r="E132" s="3"/>
-      <c r="F132" s="7"/>
-      <c r="G132" s="3"/>
-      <c r="H132" s="3"/>
-      <c r="I132" s="3"/>
-      <c r="J132" s="3"/>
-      <c r="K132" s="3"/>
-    </row>
-    <row r="133" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B133" s="3"/>
-      <c r="C133" s="3"/>
-      <c r="D133" s="3"/>
-      <c r="E133" s="3"/>
-      <c r="F133" s="7"/>
-      <c r="G133" s="3"/>
-      <c r="H133" s="3"/>
-      <c r="I133" s="3"/>
-      <c r="J133" s="3"/>
-      <c r="K133" s="3"/>
-    </row>
-    <row r="134" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B134" s="3"/>
-      <c r="C134" s="3"/>
-      <c r="D134" s="3"/>
-      <c r="E134" s="3"/>
-      <c r="F134" s="7"/>
-      <c r="G134" s="3"/>
-      <c r="H134" s="3"/>
-      <c r="I134" s="3"/>
-      <c r="J134" s="3"/>
-      <c r="K134" s="3"/>
-    </row>
-    <row r="135" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B135" s="3"/>
-      <c r="C135" s="3"/>
-      <c r="D135" s="3"/>
-      <c r="E135" s="3"/>
-      <c r="F135" s="7"/>
-      <c r="G135" s="3"/>
-      <c r="H135" s="3"/>
-      <c r="I135" s="3"/>
-      <c r="J135" s="3"/>
-      <c r="K135" s="3"/>
-    </row>
-    <row r="136" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B136" s="3"/>
-      <c r="C136" s="3"/>
-      <c r="D136" s="3"/>
-      <c r="E136" s="3"/>
-      <c r="F136" s="7"/>
-      <c r="G136" s="3"/>
-      <c r="H136" s="3"/>
-      <c r="I136" s="3"/>
-      <c r="J136" s="3"/>
-      <c r="K136" s="3"/>
-    </row>
-    <row r="137" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B137" s="3"/>
-      <c r="C137" s="3"/>
-      <c r="D137" s="3"/>
-      <c r="E137" s="3"/>
-      <c r="F137" s="7"/>
-      <c r="G137" s="3"/>
-      <c r="H137" s="3"/>
-      <c r="I137" s="3"/>
-      <c r="J137" s="3"/>
-      <c r="K137" s="3"/>
-    </row>
-    <row r="138" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B138" s="3"/>
-      <c r="C138" s="3"/>
-      <c r="D138" s="3"/>
-      <c r="E138" s="3"/>
-      <c r="F138" s="7"/>
-      <c r="G138" s="3"/>
-      <c r="H138" s="3"/>
-      <c r="I138" s="3"/>
-      <c r="J138" s="3"/>
-      <c r="K138" s="3"/>
-    </row>
-    <row r="139" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B139" s="3"/>
-      <c r="C139" s="3"/>
-      <c r="D139" s="3"/>
-      <c r="E139" s="3"/>
-      <c r="F139" s="7"/>
-      <c r="G139" s="3"/>
-      <c r="H139" s="3"/>
-      <c r="I139" s="3"/>
-      <c r="J139" s="3"/>
-      <c r="K139" s="3"/>
-    </row>
-    <row r="140" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B140" s="3"/>
-      <c r="C140" s="3"/>
-      <c r="D140" s="3"/>
-      <c r="E140" s="3"/>
-      <c r="F140" s="7"/>
-      <c r="G140" s="3"/>
-      <c r="H140" s="3"/>
-      <c r="I140" s="3"/>
-      <c r="J140" s="3"/>
-      <c r="K140" s="3"/>
-    </row>
-    <row r="141" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B141" s="3"/>
-      <c r="C141" s="3"/>
-      <c r="D141" s="3"/>
-      <c r="E141" s="3"/>
-      <c r="F141" s="7"/>
-      <c r="G141" s="3"/>
-      <c r="H141" s="3"/>
-      <c r="I141" s="3"/>
-      <c r="J141" s="3"/>
-      <c r="K141" s="3"/>
-    </row>
-    <row r="142" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B142" s="3"/>
-      <c r="C142" s="3"/>
-      <c r="D142" s="3"/>
-      <c r="E142" s="3"/>
-      <c r="F142" s="7"/>
-      <c r="G142" s="3"/>
-      <c r="H142" s="3"/>
-      <c r="I142" s="3"/>
-      <c r="J142" s="3"/>
-      <c r="K142" s="3"/>
-    </row>
-    <row r="143" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B143" s="3"/>
-      <c r="C143" s="3"/>
-      <c r="D143" s="3"/>
-      <c r="E143" s="3"/>
-      <c r="F143" s="7"/>
-      <c r="G143" s="3"/>
-      <c r="H143" s="3"/>
-      <c r="I143" s="3"/>
-      <c r="J143" s="3"/>
-      <c r="K143" s="3"/>
-    </row>
-    <row r="144" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B144" s="3"/>
-      <c r="C144" s="3"/>
-      <c r="D144" s="3"/>
-      <c r="E144" s="3"/>
-      <c r="F144" s="7"/>
-      <c r="G144" s="3"/>
-      <c r="H144" s="3"/>
-      <c r="I144" s="3"/>
-      <c r="J144" s="3"/>
-      <c r="K144" s="3"/>
-    </row>
-    <row r="145" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B145" s="3"/>
-      <c r="C145" s="3"/>
-      <c r="D145" s="3"/>
-      <c r="E145" s="3"/>
-      <c r="F145" s="7"/>
-      <c r="G145" s="3"/>
-      <c r="H145" s="3"/>
-      <c r="I145" s="3"/>
-      <c r="J145" s="3"/>
-      <c r="K145" s="3"/>
-    </row>
-    <row r="146" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B146" s="3"/>
-      <c r="C146" s="3"/>
-      <c r="D146" s="3"/>
-      <c r="E146" s="3"/>
-      <c r="F146" s="7"/>
-      <c r="G146" s="3"/>
-      <c r="H146" s="3"/>
-      <c r="I146" s="3"/>
-      <c r="J146" s="3"/>
-      <c r="K146" s="3"/>
-    </row>
-    <row r="147" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B147" s="3"/>
-      <c r="C147" s="3"/>
-      <c r="D147" s="3"/>
-      <c r="E147" s="3"/>
-      <c r="F147" s="7"/>
-      <c r="G147" s="3"/>
-      <c r="H147" s="3"/>
-      <c r="I147" s="3"/>
-      <c r="J147" s="3"/>
-      <c r="K147" s="3"/>
-    </row>
-    <row r="148" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B148" s="3"/>
-      <c r="C148" s="3"/>
-      <c r="D148" s="3"/>
-      <c r="E148" s="3"/>
-      <c r="F148" s="7"/>
-      <c r="G148" s="3"/>
-      <c r="H148" s="3"/>
-      <c r="I148" s="3"/>
-      <c r="J148" s="3"/>
-      <c r="K148" s="3"/>
-    </row>
-    <row r="149" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B149" s="3"/>
-      <c r="C149" s="3"/>
-      <c r="D149" s="3"/>
-      <c r="E149" s="3"/>
-      <c r="F149" s="7"/>
-      <c r="G149" s="3"/>
-      <c r="H149" s="3"/>
-      <c r="I149" s="3"/>
-      <c r="J149" s="3"/>
-      <c r="K149" s="3"/>
-    </row>
-    <row r="150" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B150" s="3"/>
-      <c r="C150" s="3"/>
-      <c r="D150" s="3"/>
-      <c r="E150" s="3"/>
-      <c r="F150" s="7"/>
-      <c r="G150" s="3"/>
-      <c r="H150" s="3"/>
-      <c r="I150" s="3"/>
-      <c r="J150" s="3"/>
-      <c r="K150" s="3"/>
-    </row>
-    <row r="151" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B151" s="3"/>
-      <c r="C151" s="3"/>
-      <c r="D151" s="3"/>
-      <c r="E151" s="3"/>
-      <c r="F151" s="7"/>
-      <c r="G151" s="3"/>
-      <c r="H151" s="3"/>
-      <c r="I151" s="3"/>
-      <c r="J151" s="3"/>
-      <c r="K151" s="3"/>
-    </row>
-    <row r="152" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B152" s="3"/>
-      <c r="C152" s="3"/>
-      <c r="D152" s="3"/>
-      <c r="E152" s="3"/>
-      <c r="F152" s="7"/>
-      <c r="G152" s="3"/>
-      <c r="H152" s="3"/>
-      <c r="I152" s="3"/>
-      <c r="J152" s="3"/>
-      <c r="K152" s="3"/>
-    </row>
-    <row r="153" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B153" s="3"/>
-      <c r="C153" s="3"/>
-      <c r="D153" s="3"/>
-      <c r="E153" s="3"/>
-      <c r="F153" s="7"/>
-      <c r="G153" s="3"/>
-      <c r="H153" s="3"/>
-      <c r="I153" s="3"/>
-      <c r="J153" s="3"/>
-      <c r="K153" s="3"/>
-    </row>
-    <row r="154" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B154" s="3"/>
-      <c r="C154" s="3"/>
-      <c r="D154" s="3"/>
-      <c r="E154" s="3"/>
-      <c r="F154" s="7"/>
-      <c r="G154" s="3"/>
-      <c r="H154" s="3"/>
-      <c r="I154" s="3"/>
-      <c r="J154" s="3"/>
-      <c r="K154" s="3"/>
-    </row>
-    <row r="155" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B155" s="3"/>
-      <c r="C155" s="3"/>
-      <c r="D155" s="3"/>
-      <c r="E155" s="3"/>
-      <c r="F155" s="7"/>
-      <c r="G155" s="3"/>
-      <c r="H155" s="3"/>
-      <c r="I155" s="3"/>
-      <c r="J155" s="3"/>
-      <c r="K155" s="3"/>
-    </row>
-    <row r="156" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B156" s="3"/>
-      <c r="C156" s="3"/>
-      <c r="D156" s="3"/>
-      <c r="E156" s="3"/>
-      <c r="F156" s="7"/>
-      <c r="G156" s="3"/>
-      <c r="H156" s="3"/>
-      <c r="I156" s="3"/>
-      <c r="J156" s="3"/>
-      <c r="K156" s="3"/>
-    </row>
-    <row r="157" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B157" s="3"/>
-      <c r="C157" s="3"/>
-      <c r="D157" s="3"/>
-      <c r="E157" s="3"/>
-      <c r="F157" s="7"/>
-      <c r="G157" s="3"/>
-      <c r="H157" s="3"/>
-      <c r="I157" s="3"/>
-      <c r="J157" s="3"/>
-      <c r="K157" s="3"/>
-    </row>
-    <row r="158" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B158" s="3"/>
-      <c r="C158" s="3"/>
-      <c r="D158" s="3"/>
-      <c r="E158" s="3"/>
-      <c r="F158" s="7"/>
-      <c r="G158" s="3"/>
-      <c r="H158" s="3"/>
-      <c r="I158" s="3"/>
-      <c r="J158" s="3"/>
-      <c r="K158" s="3"/>
-    </row>
-    <row r="159" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B159" s="3"/>
-      <c r="C159" s="3"/>
-      <c r="D159" s="3"/>
-      <c r="E159" s="3"/>
-      <c r="F159" s="7"/>
-      <c r="G159" s="3"/>
-      <c r="H159" s="3"/>
-      <c r="I159" s="3"/>
-      <c r="J159" s="3"/>
-      <c r="K159" s="3"/>
-    </row>
-    <row r="160" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B160" s="3"/>
-      <c r="C160" s="3"/>
-      <c r="D160" s="3"/>
-      <c r="E160" s="3"/>
-      <c r="F160" s="7"/>
-      <c r="G160" s="3"/>
-      <c r="H160" s="3"/>
-      <c r="I160" s="3"/>
-      <c r="J160" s="3"/>
-      <c r="K160" s="3"/>
-    </row>
-    <row r="161" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B161" s="3"/>
-      <c r="C161" s="3"/>
-      <c r="D161" s="3"/>
-      <c r="E161" s="3"/>
-      <c r="F161" s="7"/>
-      <c r="G161" s="3"/>
-      <c r="H161" s="3"/>
-      <c r="I161" s="3"/>
-      <c r="J161" s="3"/>
-      <c r="K161" s="3"/>
-    </row>
-    <row r="162" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B162" s="3"/>
-      <c r="C162" s="3"/>
-      <c r="D162" s="3"/>
-      <c r="E162" s="3"/>
-      <c r="F162" s="7"/>
-      <c r="G162" s="3"/>
-      <c r="H162" s="3"/>
-      <c r="I162" s="3"/>
-      <c r="J162" s="3"/>
-      <c r="K162" s="3"/>
-    </row>
-    <row r="163" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B163" s="3"/>
-      <c r="C163" s="3"/>
-      <c r="D163" s="3"/>
-      <c r="E163" s="3"/>
-      <c r="F163" s="7"/>
-      <c r="G163" s="3"/>
-      <c r="H163" s="3"/>
-      <c r="I163" s="3"/>
-      <c r="J163" s="3"/>
-      <c r="K163" s="3"/>
-    </row>
-    <row r="164" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B164" s="3"/>
-      <c r="C164" s="3"/>
-      <c r="D164" s="3"/>
-      <c r="E164" s="3"/>
-      <c r="F164" s="7"/>
-      <c r="G164" s="3"/>
-      <c r="H164" s="3"/>
-      <c r="I164" s="3"/>
-      <c r="J164" s="3"/>
-      <c r="K164" s="3"/>
-    </row>
-    <row r="165" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B165" s="3"/>
-      <c r="C165" s="3"/>
-      <c r="D165" s="3"/>
-      <c r="E165" s="3"/>
-      <c r="F165" s="7"/>
-      <c r="G165" s="3"/>
-      <c r="H165" s="3"/>
-      <c r="I165" s="3"/>
-      <c r="J165" s="3"/>
-      <c r="K165" s="3"/>
-    </row>
-    <row r="166" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B166" s="3"/>
-      <c r="C166" s="3"/>
-      <c r="D166" s="3"/>
-      <c r="E166" s="3"/>
-      <c r="F166" s="7"/>
-      <c r="G166" s="3"/>
-      <c r="H166" s="3"/>
-      <c r="I166" s="3"/>
-      <c r="J166" s="3"/>
-      <c r="K166" s="3"/>
-    </row>
-    <row r="167" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B167" s="3"/>
-      <c r="C167" s="3"/>
-      <c r="D167" s="3"/>
-      <c r="E167" s="3"/>
-      <c r="F167" s="7"/>
-      <c r="G167" s="3"/>
-      <c r="H167" s="3"/>
-      <c r="I167" s="3"/>
-      <c r="J167" s="3"/>
-      <c r="K167" s="3"/>
-    </row>
-    <row r="168" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B168" s="3"/>
-      <c r="C168" s="3"/>
-      <c r="D168" s="3"/>
-      <c r="E168" s="3"/>
-      <c r="F168" s="7"/>
-      <c r="G168" s="3"/>
-      <c r="H168" s="3"/>
-      <c r="I168" s="3"/>
-      <c r="J168" s="3"/>
-      <c r="K168" s="3"/>
-    </row>
-    <row r="169" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B169" s="3"/>
-      <c r="C169" s="3"/>
-      <c r="D169" s="3"/>
-      <c r="E169" s="3"/>
-      <c r="F169" s="7"/>
-      <c r="G169" s="3"/>
-      <c r="H169" s="3"/>
-      <c r="I169" s="3"/>
-      <c r="J169" s="3"/>
-      <c r="K169" s="3"/>
-    </row>
-    <row r="170" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B170" s="3"/>
-      <c r="C170" s="3"/>
-      <c r="D170" s="3"/>
-      <c r="E170" s="3"/>
-      <c r="F170" s="7"/>
-      <c r="G170" s="3"/>
-      <c r="H170" s="3"/>
-      <c r="I170" s="3"/>
-      <c r="J170" s="3"/>
-      <c r="K170" s="3"/>
-    </row>
-    <row r="171" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B171" s="3"/>
-      <c r="C171" s="3"/>
-      <c r="D171" s="3"/>
-      <c r="E171" s="3"/>
-      <c r="F171" s="7"/>
-      <c r="G171" s="3"/>
-      <c r="H171" s="3"/>
-      <c r="I171" s="3"/>
-      <c r="J171" s="3"/>
-      <c r="K171" s="3"/>
-    </row>
-    <row r="172" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B172" s="3"/>
-      <c r="C172" s="3"/>
-      <c r="D172" s="3"/>
-      <c r="E172" s="3"/>
-      <c r="F172" s="7"/>
-      <c r="G172" s="3"/>
-      <c r="H172" s="3"/>
-      <c r="I172" s="3"/>
-      <c r="J172" s="3"/>
-      <c r="K172" s="3"/>
-    </row>
-    <row r="173" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B173" s="3"/>
-      <c r="C173" s="3"/>
-      <c r="D173" s="3"/>
-      <c r="E173" s="3"/>
-      <c r="F173" s="7"/>
-      <c r="G173" s="3"/>
-      <c r="H173" s="3"/>
-      <c r="I173" s="3"/>
-      <c r="J173" s="3"/>
-      <c r="K173" s="3"/>
-    </row>
-    <row r="174" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B174" s="3"/>
-      <c r="C174" s="3"/>
-      <c r="D174" s="3"/>
-      <c r="E174" s="3"/>
-      <c r="F174" s="7"/>
-      <c r="G174" s="3"/>
-      <c r="H174" s="3"/>
-      <c r="I174" s="3"/>
-      <c r="J174" s="3"/>
-      <c r="K174" s="3"/>
-    </row>
-    <row r="175" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B175" s="3"/>
-      <c r="C175" s="3"/>
-      <c r="D175" s="3"/>
-      <c r="E175" s="3"/>
-      <c r="F175" s="7"/>
-      <c r="G175" s="3"/>
-      <c r="H175" s="3"/>
-      <c r="I175" s="3"/>
-      <c r="J175" s="3"/>
-      <c r="K175" s="3"/>
-    </row>
-    <row r="176" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B176" s="3"/>
-      <c r="C176" s="3"/>
-      <c r="D176" s="3"/>
-      <c r="E176" s="3"/>
-      <c r="F176" s="7"/>
-      <c r="G176" s="3"/>
-      <c r="H176" s="3"/>
-      <c r="I176" s="3"/>
-      <c r="J176" s="3"/>
-      <c r="K176" s="3"/>
-    </row>
-    <row r="177" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B177" s="3"/>
-      <c r="C177" s="3"/>
-      <c r="D177" s="3"/>
-      <c r="E177" s="3"/>
-      <c r="F177" s="7"/>
-      <c r="G177" s="3"/>
-      <c r="H177" s="3"/>
-      <c r="I177" s="3"/>
-      <c r="J177" s="3"/>
-      <c r="K177" s="3"/>
-    </row>
-    <row r="178" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B178" s="3"/>
-      <c r="C178" s="3"/>
-      <c r="D178" s="3"/>
-      <c r="E178" s="3"/>
-      <c r="F178" s="7"/>
-      <c r="G178" s="3"/>
-      <c r="H178" s="3"/>
-      <c r="I178" s="3"/>
-      <c r="J178" s="3"/>
-      <c r="K178" s="3"/>
-    </row>
-    <row r="179" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B179" s="3"/>
-      <c r="C179" s="3"/>
-      <c r="D179" s="3"/>
-      <c r="E179" s="3"/>
-      <c r="F179" s="7"/>
-      <c r="G179" s="3"/>
-      <c r="H179" s="3"/>
-      <c r="I179" s="3"/>
-      <c r="J179" s="3"/>
-      <c r="K179" s="3"/>
-    </row>
-    <row r="180" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B180" s="3"/>
-      <c r="C180" s="3"/>
-      <c r="D180" s="3"/>
-      <c r="E180" s="3"/>
-      <c r="F180" s="7"/>
-      <c r="G180" s="3"/>
-      <c r="H180" s="3"/>
-      <c r="I180" s="3"/>
-      <c r="J180" s="3"/>
-      <c r="K180" s="3"/>
-    </row>
-    <row r="181" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B181" s="3"/>
-      <c r="C181" s="3"/>
-      <c r="D181" s="3"/>
-      <c r="E181" s="3"/>
-      <c r="F181" s="7"/>
-      <c r="G181" s="3"/>
-      <c r="H181" s="3"/>
-      <c r="I181" s="3"/>
-      <c r="J181" s="3"/>
-      <c r="K181" s="3"/>
-    </row>
-    <row r="182" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B182" s="3"/>
-      <c r="C182" s="3"/>
-      <c r="D182" s="3"/>
-      <c r="E182" s="3"/>
-      <c r="F182" s="7"/>
-      <c r="G182" s="3"/>
-      <c r="H182" s="3"/>
-      <c r="I182" s="3"/>
-      <c r="J182" s="3"/>
-      <c r="K182" s="3"/>
-    </row>
-    <row r="183" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B183" s="3"/>
-      <c r="C183" s="3"/>
-      <c r="D183" s="3"/>
-      <c r="E183" s="3"/>
-      <c r="F183" s="7"/>
-      <c r="G183" s="3"/>
-      <c r="H183" s="3"/>
-      <c r="I183" s="3"/>
-      <c r="J183" s="3"/>
-      <c r="K183" s="3"/>
-    </row>
-    <row r="184" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B184" s="3"/>
-      <c r="C184" s="3"/>
-      <c r="D184" s="3"/>
-      <c r="E184" s="3"/>
-      <c r="F184" s="7"/>
-      <c r="G184" s="3"/>
-      <c r="H184" s="3"/>
-      <c r="I184" s="3"/>
-      <c r="J184" s="3"/>
-      <c r="K184" s="3"/>
-    </row>
-    <row r="185" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B185" s="3"/>
-      <c r="C185" s="3"/>
-      <c r="D185" s="3"/>
-      <c r="E185" s="3"/>
-      <c r="F185" s="7"/>
-      <c r="G185" s="3"/>
-      <c r="H185" s="3"/>
-      <c r="I185" s="3"/>
-      <c r="J185" s="3"/>
-      <c r="K185" s="3"/>
-    </row>
-    <row r="186" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B186" s="3"/>
-      <c r="C186" s="3"/>
-      <c r="D186" s="3"/>
-      <c r="E186" s="3"/>
-      <c r="F186" s="7"/>
-      <c r="G186" s="3"/>
-      <c r="H186" s="3"/>
-      <c r="I186" s="3"/>
-      <c r="J186" s="3"/>
-      <c r="K186" s="3"/>
-    </row>
-    <row r="187" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B187" s="3"/>
-      <c r="C187" s="3"/>
-      <c r="D187" s="3"/>
-      <c r="E187" s="3"/>
-      <c r="F187" s="7"/>
-      <c r="G187" s="3"/>
-      <c r="H187" s="3"/>
-      <c r="I187" s="3"/>
-      <c r="J187" s="3"/>
-      <c r="K187" s="3"/>
-    </row>
-    <row r="188" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B188" s="3"/>
-      <c r="C188" s="3"/>
-      <c r="D188" s="3"/>
-      <c r="E188" s="3"/>
-      <c r="F188" s="7"/>
-      <c r="G188" s="3"/>
-      <c r="H188" s="3"/>
-      <c r="I188" s="3"/>
-      <c r="J188" s="3"/>
-      <c r="K188" s="3"/>
-    </row>
-    <row r="189" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B189" s="3"/>
-      <c r="C189" s="3"/>
-      <c r="D189" s="3"/>
-      <c r="E189" s="3"/>
-      <c r="F189" s="7"/>
-      <c r="G189" s="3"/>
-      <c r="H189" s="3"/>
-      <c r="I189" s="3"/>
-      <c r="J189" s="3"/>
-      <c r="K189" s="3"/>
-    </row>
-    <row r="190" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B190" s="3"/>
-      <c r="C190" s="3"/>
-      <c r="D190" s="3"/>
-      <c r="E190" s="3"/>
-      <c r="F190" s="7"/>
-      <c r="G190" s="3"/>
-      <c r="H190" s="3"/>
-      <c r="I190" s="3"/>
-      <c r="J190" s="3"/>
-      <c r="K190" s="3"/>
-    </row>
-    <row r="191" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B191" s="3"/>
-      <c r="C191" s="3"/>
-      <c r="D191" s="3"/>
-      <c r="E191" s="3"/>
-      <c r="F191" s="7"/>
-      <c r="G191" s="3"/>
-      <c r="H191" s="3"/>
-      <c r="I191" s="3"/>
-      <c r="J191" s="3"/>
-      <c r="K191" s="3"/>
-    </row>
-    <row r="192" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B192" s="3"/>
-      <c r="C192" s="3"/>
-      <c r="D192" s="3"/>
-      <c r="E192" s="3"/>
-      <c r="F192" s="7"/>
-      <c r="G192" s="3"/>
-      <c r="H192" s="3"/>
-      <c r="I192" s="3"/>
-      <c r="J192" s="3"/>
-      <c r="K192" s="3"/>
-    </row>
-    <row r="193" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B193" s="3"/>
-      <c r="C193" s="3"/>
-      <c r="D193" s="3"/>
-      <c r="E193" s="3"/>
-      <c r="F193" s="7"/>
-      <c r="G193" s="3"/>
-      <c r="H193" s="3"/>
-      <c r="I193" s="3"/>
-      <c r="J193" s="3"/>
-      <c r="K193" s="3"/>
-    </row>
-    <row r="194" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B194" s="3"/>
-      <c r="C194" s="3"/>
-      <c r="D194" s="3"/>
-      <c r="E194" s="3"/>
-      <c r="F194" s="7"/>
-      <c r="G194" s="3"/>
-      <c r="H194" s="3"/>
-      <c r="I194" s="3"/>
-      <c r="J194" s="3"/>
-      <c r="K194" s="3"/>
-    </row>
-    <row r="195" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B195" s="3"/>
-      <c r="C195" s="3"/>
-      <c r="D195" s="3"/>
-      <c r="E195" s="3"/>
-      <c r="F195" s="7"/>
-      <c r="G195" s="3"/>
-      <c r="H195" s="3"/>
-      <c r="I195" s="3"/>
-      <c r="J195" s="3"/>
-      <c r="K195" s="3"/>
-    </row>
-    <row r="196" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B196" s="3"/>
-      <c r="C196" s="3"/>
-      <c r="D196" s="3"/>
-      <c r="E196" s="3"/>
-      <c r="F196" s="7"/>
-      <c r="G196" s="3"/>
-      <c r="H196" s="3"/>
-      <c r="I196" s="3"/>
-      <c r="J196" s="3"/>
-      <c r="K196" s="3"/>
-    </row>
-    <row r="197" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B197" s="3"/>
-      <c r="C197" s="3"/>
-      <c r="D197" s="3"/>
-      <c r="E197" s="3"/>
-      <c r="F197" s="7"/>
-      <c r="G197" s="3"/>
-      <c r="H197" s="3"/>
-      <c r="I197" s="3"/>
-      <c r="J197" s="3"/>
-      <c r="K197" s="3"/>
-    </row>
-    <row r="198" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B198" s="3"/>
-      <c r="C198" s="3"/>
-      <c r="D198" s="3"/>
-      <c r="E198" s="3"/>
-      <c r="F198" s="7"/>
-      <c r="G198" s="3"/>
-      <c r="H198" s="3"/>
-      <c r="I198" s="3"/>
-      <c r="J198" s="3"/>
-      <c r="K198" s="3"/>
-    </row>
-    <row r="199" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B199" s="3"/>
-      <c r="C199" s="3"/>
-      <c r="D199" s="3"/>
-      <c r="E199" s="3"/>
-      <c r="F199" s="7"/>
-      <c r="G199" s="3"/>
-      <c r="H199" s="3"/>
-      <c r="I199" s="3"/>
-      <c r="J199" s="3"/>
-      <c r="K199" s="3"/>
-    </row>
-    <row r="200" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B200" s="3"/>
-      <c r="C200" s="3"/>
-      <c r="D200" s="3"/>
-      <c r="E200" s="3"/>
-      <c r="F200" s="7"/>
-      <c r="G200" s="3"/>
-      <c r="H200" s="3"/>
-      <c r="I200" s="3"/>
-      <c r="J200" s="3"/>
-      <c r="K200" s="3"/>
-    </row>
-    <row r="201" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B201" s="3"/>
-      <c r="C201" s="3"/>
-      <c r="D201" s="3"/>
-      <c r="E201" s="3"/>
-      <c r="F201" s="7"/>
-      <c r="G201" s="3"/>
-      <c r="H201" s="3"/>
-      <c r="I201" s="3"/>
-      <c r="J201" s="3"/>
-      <c r="K201" s="3"/>
-    </row>
-    <row r="202" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B202" s="3"/>
-      <c r="C202" s="3"/>
-      <c r="D202" s="3"/>
-      <c r="E202" s="3"/>
-      <c r="F202" s="7"/>
-      <c r="G202" s="3"/>
-      <c r="H202" s="3"/>
-      <c r="I202" s="3"/>
-      <c r="J202" s="3"/>
-      <c r="K202" s="3"/>
-    </row>
-    <row r="203" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B203" s="3"/>
-      <c r="C203" s="3"/>
-      <c r="D203" s="3"/>
-      <c r="E203" s="3"/>
-      <c r="F203" s="7"/>
-      <c r="G203" s="3"/>
-      <c r="H203" s="3"/>
-      <c r="I203" s="3"/>
-      <c r="J203" s="3"/>
-      <c r="K203" s="3"/>
-    </row>
-    <row r="204" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B204" s="3"/>
-      <c r="C204" s="3"/>
-      <c r="D204" s="3"/>
-      <c r="E204" s="3"/>
-      <c r="F204" s="7"/>
-      <c r="G204" s="3"/>
-      <c r="H204" s="3"/>
-      <c r="I204" s="3"/>
-      <c r="J204" s="3"/>
-      <c r="K204" s="3"/>
-    </row>
-    <row r="205" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B205" s="3"/>
-      <c r="C205" s="3"/>
-      <c r="D205" s="3"/>
-      <c r="E205" s="3"/>
-      <c r="F205" s="7"/>
-      <c r="G205" s="3"/>
-      <c r="H205" s="3"/>
-      <c r="I205" s="3"/>
-      <c r="J205" s="3"/>
-      <c r="K205" s="3"/>
-    </row>
-    <row r="206" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B206" s="3"/>
-      <c r="C206" s="3"/>
-      <c r="D206" s="3"/>
-      <c r="E206" s="3"/>
-      <c r="F206" s="7"/>
-      <c r="G206" s="3"/>
-      <c r="H206" s="3"/>
-      <c r="I206" s="3"/>
-      <c r="J206" s="3"/>
-      <c r="K206" s="3"/>
-    </row>
-    <row r="207" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B207" s="3"/>
-      <c r="C207" s="3"/>
-      <c r="D207" s="3"/>
-      <c r="E207" s="3"/>
-      <c r="F207" s="7"/>
-      <c r="G207" s="3"/>
-      <c r="H207" s="3"/>
-      <c r="I207" s="3"/>
-      <c r="J207" s="3"/>
-      <c r="K207" s="3"/>
-    </row>
-    <row r="208" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B208" s="3"/>
-      <c r="C208" s="3"/>
-      <c r="D208" s="3"/>
-      <c r="E208" s="3"/>
-      <c r="F208" s="7"/>
-      <c r="G208" s="3"/>
-      <c r="H208" s="3"/>
-      <c r="I208" s="3"/>
-      <c r="J208" s="3"/>
-      <c r="K208" s="3"/>
-    </row>
-    <row r="209" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H209" s="3"/>
-    </row>
-    <row r="210" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H210" s="3"/>
+      <c r="G107" s="17"/>
+    </row>
+    <row r="108" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="F108" s="19"/>
+      <c r="G108" s="17"/>
+    </row>
+    <row r="109" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="F109" s="19"/>
+      <c r="G109" s="17"/>
+    </row>
+    <row r="110" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="F110" s="19"/>
+      <c r="G110" s="17"/>
+    </row>
+    <row r="111" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="F111" s="19"/>
+      <c r="G111" s="17"/>
+    </row>
+    <row r="112" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="F112" s="19"/>
+      <c r="G112" s="17"/>
+    </row>
+    <row r="113" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F113" s="17"/>
+      <c r="G113" s="17"/>
+    </row>
+    <row r="114" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F114" s="17"/>
+      <c r="G114" s="17"/>
+    </row>
+    <row r="115" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F115" s="17"/>
+      <c r="G115" s="17"/>
+    </row>
+    <row r="116" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F116" s="17"/>
+      <c r="G116" s="17"/>
+    </row>
+    <row r="117" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F117" s="17"/>
+      <c r="G117" s="17"/>
+    </row>
+    <row r="118" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F118" s="17"/>
+      <c r="G118" s="17"/>
+    </row>
+    <row r="119" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F119" s="17"/>
+      <c r="G119" s="17"/>
+    </row>
+    <row r="120" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F120" s="17"/>
+      <c r="G120" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="3">
